--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H2">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I2">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J2">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>9.399434724927223</v>
+        <v>33.16320422867934</v>
       </c>
       <c r="R2">
-        <v>84.59491252434501</v>
+        <v>298.468838058114</v>
       </c>
       <c r="S2">
-        <v>0.002850443844985749</v>
+        <v>0.007961944961421287</v>
       </c>
       <c r="T2">
-        <v>0.00285044384498575</v>
+        <v>0.007961944961421287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H3">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I3">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J3">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>33.25147352709779</v>
+        <v>70.89109520397335</v>
       </c>
       <c r="R3">
-        <v>299.2632617438801</v>
+        <v>638.01985683576</v>
       </c>
       <c r="S3">
-        <v>0.01008374022755462</v>
+        <v>0.0170197968319598</v>
       </c>
       <c r="T3">
-        <v>0.01008374022755463</v>
+        <v>0.0170197968319598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H4">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I4">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J4">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>13.00340767354289</v>
+        <v>45.62511566002267</v>
       </c>
       <c r="R4">
-        <v>117.030669061886</v>
+        <v>410.626040940204</v>
       </c>
       <c r="S4">
-        <v>0.003943373665715602</v>
+        <v>0.01095384683695407</v>
       </c>
       <c r="T4">
-        <v>0.003943373665715603</v>
+        <v>0.01095384683695407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H5">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I5">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J5">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>3.456493827324223</v>
+        <v>6.616723037714667</v>
       </c>
       <c r="R5">
-        <v>31.10844444591801</v>
+        <v>59.55050733943201</v>
       </c>
       <c r="S5">
-        <v>0.001048205753182019</v>
+        <v>0.001588567385949196</v>
       </c>
       <c r="T5">
-        <v>0.001048205753182019</v>
+        <v>0.001588567385949196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H6">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I6">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J6">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>9.759188347562002</v>
+        <v>25.10440282176934</v>
       </c>
       <c r="R6">
-        <v>87.83269512805802</v>
+        <v>225.939625395924</v>
       </c>
       <c r="S6">
-        <v>0.002959541628986645</v>
+        <v>0.00602715805680266</v>
       </c>
       <c r="T6">
-        <v>0.002959541628986645</v>
+        <v>0.00602715805680266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H7">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I7">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J7">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>9.622561393576447</v>
+        <v>31.99735925340733</v>
       </c>
       <c r="R7">
-        <v>86.60305254218802</v>
+        <v>287.976233280666</v>
       </c>
       <c r="S7">
-        <v>0.002918108556525972</v>
+        <v>0.007682044579580684</v>
       </c>
       <c r="T7">
-        <v>0.002918108556525972</v>
+        <v>0.007682044579580684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>42.93761</v>
       </c>
       <c r="I8">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J8">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>349.7116383069055</v>
+        <v>578.7407260049212</v>
       </c>
       <c r="R8">
-        <v>3147.40474476215</v>
+        <v>5208.666534044291</v>
       </c>
       <c r="S8">
-        <v>0.1060524825272958</v>
+        <v>0.1389462180918964</v>
       </c>
       <c r="T8">
-        <v>0.1060524825272958</v>
+        <v>0.1389462180918964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>42.93761</v>
       </c>
       <c r="I9">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J9">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>1237.141128544845</v>
@@ -1013,10 +1013,10 @@
         <v>11134.2701569036</v>
       </c>
       <c r="S9">
-        <v>0.3751716372780789</v>
+        <v>0.2970174265147276</v>
       </c>
       <c r="T9">
-        <v>0.375171637278079</v>
+        <v>0.2970174265147277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>42.93761</v>
       </c>
       <c r="I10">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J10">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>483.7996256336022</v>
+        <v>796.217168252549</v>
       </c>
       <c r="R10">
-        <v>4354.196630702419</v>
+        <v>7165.95451427294</v>
       </c>
       <c r="S10">
-        <v>0.1467155957194424</v>
+        <v>0.191158768231545</v>
       </c>
       <c r="T10">
-        <v>0.1467155957194425</v>
+        <v>0.191158768231545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>42.93761</v>
       </c>
       <c r="I11">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J11">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>128.6009376654956</v>
+        <v>115.4703589018356</v>
       </c>
       <c r="R11">
-        <v>1157.40843898946</v>
+        <v>1039.23323011652</v>
       </c>
       <c r="S11">
-        <v>0.03899912728324692</v>
+        <v>0.02772255165430947</v>
       </c>
       <c r="T11">
-        <v>0.03899912728324692</v>
+        <v>0.02772255165430948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>42.93761</v>
       </c>
       <c r="I12">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J12">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>363.09648882614</v>
+        <v>438.1042379019045</v>
       </c>
       <c r="R12">
-        <v>3267.86839943526</v>
+        <v>3942.93814111714</v>
       </c>
       <c r="S12">
-        <v>0.1101115313845026</v>
+        <v>0.1051816888828806</v>
       </c>
       <c r="T12">
-        <v>0.1101115313845026</v>
+        <v>0.1051816888828806</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>42.93761</v>
       </c>
       <c r="I13">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J13">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>358.0132005951511</v>
+        <v>558.3952261326677</v>
       </c>
       <c r="R13">
-        <v>3222.11880535636</v>
+        <v>5025.55703519401</v>
       </c>
       <c r="S13">
-        <v>0.1085699889328183</v>
+        <v>0.1340615950898947</v>
       </c>
       <c r="T13">
-        <v>0.1085699889328183</v>
+        <v>0.1340615950898947</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H14">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I14">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J14">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>6.526272350248887</v>
+        <v>3.505970324461889</v>
       </c>
       <c r="R14">
-        <v>58.73645115223999</v>
+        <v>31.553732920157</v>
       </c>
       <c r="S14">
-        <v>0.001979137405160464</v>
+        <v>0.0008417263472870857</v>
       </c>
       <c r="T14">
-        <v>0.001979137405160464</v>
+        <v>0.0008417263472870857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H15">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I15">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J15">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>23.08736414855111</v>
+        <v>7.494513326875555</v>
       </c>
       <c r="R15">
-        <v>207.78627733696</v>
+        <v>67.45061994188001</v>
       </c>
       <c r="S15">
-        <v>0.007001403484366632</v>
+        <v>0.001799310531327322</v>
       </c>
       <c r="T15">
-        <v>0.007001403484366632</v>
+        <v>0.001799310531327322</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H16">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I16">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J16">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>9.028604638723554</v>
+        <v>4.823427207189111</v>
       </c>
       <c r="R16">
-        <v>81.25744174851201</v>
+        <v>43.410844864702</v>
       </c>
       <c r="S16">
-        <v>0.002737987046498544</v>
+        <v>0.001158026277685504</v>
       </c>
       <c r="T16">
-        <v>0.002737987046498544</v>
+        <v>0.001158026277685504</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H17">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I17">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J17">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>2.399933693272889</v>
+        <v>0.6995112551684445</v>
       </c>
       <c r="R17">
-        <v>21.599403239456</v>
+        <v>6.295601296516001</v>
       </c>
       <c r="S17">
-        <v>0.0007277965563420186</v>
+        <v>0.0001679412542630435</v>
       </c>
       <c r="T17">
-        <v>0.0007277965563420186</v>
+        <v>0.0001679412542630435</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H18">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I18">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J18">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>6.776058660704</v>
+        <v>2.654004441173555</v>
       </c>
       <c r="R18">
-        <v>60.984527946336</v>
+        <v>23.886039970562</v>
       </c>
       <c r="S18">
-        <v>0.002054886838188628</v>
+        <v>0.0006371832209662514</v>
       </c>
       <c r="T18">
-        <v>0.002054886838188628</v>
+        <v>0.0006371832209662514</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H19">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I19">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J19">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>6.681195007921778</v>
+        <v>3.382718727359222</v>
       </c>
       <c r="R19">
-        <v>60.130755071296</v>
+        <v>30.444468546233</v>
       </c>
       <c r="S19">
-        <v>0.00202611877679991</v>
+        <v>0.0008121356471312163</v>
       </c>
       <c r="T19">
-        <v>0.00202611877679991</v>
+        <v>0.0008121356471312163</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H20">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I20">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J20">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>22.46683525993167</v>
+        <v>24.31350449097845</v>
       </c>
       <c r="R20">
-        <v>202.201517339385</v>
+        <v>218.821540418806</v>
       </c>
       <c r="S20">
-        <v>0.006813223790271799</v>
+        <v>0.005837276254778494</v>
       </c>
       <c r="T20">
-        <v>0.0068132237902718</v>
+        <v>0.005837276254778495</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H21">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I21">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J21">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>79.47875587689335</v>
+        <v>51.97359548633778</v>
       </c>
       <c r="R21">
-        <v>715.3088028920401</v>
+        <v>467.76235937704</v>
       </c>
       <c r="S21">
-        <v>0.02410248457767439</v>
+        <v>0.01247801339870331</v>
       </c>
       <c r="T21">
-        <v>0.0241024845776744</v>
+        <v>0.01247801339870332</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H22">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I22">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J22">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>31.08116887544867</v>
+        <v>33.44991777187956</v>
       </c>
       <c r="R22">
-        <v>279.730519879038</v>
+        <v>301.049259946916</v>
       </c>
       <c r="S22">
-        <v>0.009425580272506361</v>
+        <v>0.008030780211323951</v>
       </c>
       <c r="T22">
-        <v>0.009425580272506362</v>
+        <v>0.008030780211323951</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H23">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I23">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J23">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>8.261824212632668</v>
+        <v>4.851030804614222</v>
       </c>
       <c r="R23">
-        <v>74.35641791369402</v>
+        <v>43.659277241528</v>
       </c>
       <c r="S23">
-        <v>0.002505455558172979</v>
+        <v>0.00116465345164374</v>
       </c>
       <c r="T23">
-        <v>0.002505455558172979</v>
+        <v>0.00116465345164374</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H24">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I24">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J24">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>23.326730095146</v>
+        <v>18.40521822142178</v>
       </c>
       <c r="R24">
-        <v>209.940570856314</v>
+        <v>165.646963992796</v>
       </c>
       <c r="S24">
-        <v>0.007073992869700745</v>
+        <v>0.004418792993325425</v>
       </c>
       <c r="T24">
-        <v>0.007073992869700746</v>
+        <v>0.004418792993325426</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H25">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I25">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J25">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>23.00015989628934</v>
+        <v>23.45876871675711</v>
       </c>
       <c r="R25">
-        <v>207.001439066604</v>
+        <v>211.128918450814</v>
       </c>
       <c r="S25">
-        <v>0.006974958189368522</v>
+        <v>0.005632068122778304</v>
       </c>
       <c r="T25">
-        <v>0.006974958189368524</v>
+        <v>0.005632068122778305</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>0.343811</v>
       </c>
       <c r="I26">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J26">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>2.800218924107222</v>
+        <v>4.634105804875445</v>
       </c>
       <c r="R26">
-        <v>25.201970316965</v>
+        <v>41.706952243879</v>
       </c>
       <c r="S26">
-        <v>0.0008491858319592563</v>
+        <v>0.001112573293865052</v>
       </c>
       <c r="T26">
-        <v>0.0008491858319592565</v>
+        <v>0.001112573293865052</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>0.343811</v>
       </c>
       <c r="I27">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J27">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
         <v>9.906064369817779</v>
       </c>
       <c r="R27">
-        <v>89.15457932836001</v>
+        <v>89.15457932836</v>
       </c>
       <c r="S27">
-        <v>0.003004082802564316</v>
+        <v>0.002378284642006274</v>
       </c>
       <c r="T27">
-        <v>0.003004082802564316</v>
+        <v>0.002378284642006274</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,10 +2161,10 @@
         <v>0.343811</v>
       </c>
       <c r="I28">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J28">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>3.873891282926889</v>
+        <v>6.375488082221556</v>
       </c>
       <c r="R28">
-        <v>34.86502154634201</v>
+        <v>57.379392739994</v>
       </c>
       <c r="S28">
-        <v>0.001174784429778397</v>
+        <v>0.001530650803909573</v>
       </c>
       <c r="T28">
-        <v>0.001174784429778398</v>
+        <v>0.001530650803909573</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>0.343811</v>
       </c>
       <c r="I29">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J29">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>1.029736330916222</v>
+        <v>0.9245968642502223</v>
       </c>
       <c r="R29">
-        <v>9.267626978246001</v>
+        <v>8.321371778252001</v>
       </c>
       <c r="S29">
-        <v>0.0003122746922891238</v>
+        <v>0.0002219806413729081</v>
       </c>
       <c r="T29">
-        <v>0.0003122746922891239</v>
+        <v>0.0002219806413729082</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>0.343811</v>
       </c>
       <c r="I30">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J30">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>2.907394401314</v>
+        <v>3.507998142823778</v>
       </c>
       <c r="R30">
-        <v>26.166549611826</v>
+        <v>31.571983285414</v>
       </c>
       <c r="S30">
-        <v>0.0008816875395914497</v>
+        <v>0.0008422131934337302</v>
       </c>
       <c r="T30">
-        <v>0.0008816875395914498</v>
+        <v>0.0008422131934337302</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,10 +2347,10 @@
         <v>0.343811</v>
       </c>
       <c r="I31">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J31">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>2.866691381048445</v>
+        <v>4.471194859050111</v>
       </c>
       <c r="R31">
-        <v>25.800222429436</v>
+        <v>40.24075373145099</v>
       </c>
       <c r="S31">
-        <v>0.0008693440660758994</v>
+        <v>0.001073461030305408</v>
       </c>
       <c r="T31">
-        <v>0.0008693440660758996</v>
+        <v>0.001073461030305408</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H32">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I32">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J32">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N32">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q32">
-        <v>3.973194567737222</v>
+        <v>2.939584257620889</v>
       </c>
       <c r="R32">
-        <v>35.75875110963499</v>
+        <v>26.456258318588</v>
       </c>
       <c r="S32">
-        <v>0.001204898840406072</v>
+        <v>0.0007057462815489234</v>
       </c>
       <c r="T32">
-        <v>0.001204898840406072</v>
+        <v>0.0007057462815489234</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H33">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I33">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J33">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q33">
-        <v>14.05558715533778</v>
+        <v>6.283782050435557</v>
       </c>
       <c r="R33">
-        <v>126.50028439804</v>
+        <v>56.55403845392001</v>
       </c>
       <c r="S33">
-        <v>0.004262454399341927</v>
+        <v>0.001508633679970776</v>
       </c>
       <c r="T33">
-        <v>0.004262454399341928</v>
+        <v>0.001508633679970776</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H34">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I34">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J34">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N34">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q34">
-        <v>5.496614449970888</v>
+        <v>4.044207273263112</v>
       </c>
       <c r="R34">
-        <v>49.469530049738</v>
+        <v>36.39786545936801</v>
       </c>
       <c r="S34">
-        <v>0.001666886497506961</v>
+        <v>0.0009709482684563515</v>
       </c>
       <c r="T34">
-        <v>0.001666886497506961</v>
+        <v>0.0009709482684563515</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H35">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I35">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J35">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N35">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q35">
-        <v>1.461079618088222</v>
+        <v>0.5865058980604445</v>
       </c>
       <c r="R35">
-        <v>13.149716562794</v>
+        <v>5.278553082544001</v>
       </c>
       <c r="S35">
-        <v>0.0004430825391413043</v>
+        <v>0.0001408105093737556</v>
       </c>
       <c r="T35">
-        <v>0.0004430825391413044</v>
+        <v>0.0001408105093737556</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H36">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I36">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J36">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N36">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q36">
-        <v>4.125264472046</v>
+        <v>2.225252627067556</v>
       </c>
       <c r="R36">
-        <v>37.127380248414</v>
+        <v>20.027273643608</v>
       </c>
       <c r="S36">
-        <v>0.001251015094779857</v>
+        <v>0.000534246896644811</v>
       </c>
       <c r="T36">
-        <v>0.001251015094779857</v>
+        <v>0.000534246896644811</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H37">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I37">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J37">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N37">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q37">
-        <v>4.067511480800444</v>
+        <v>2.836243835130222</v>
       </c>
       <c r="R37">
-        <v>36.607603327204</v>
+        <v>25.526194516172</v>
       </c>
       <c r="S37">
-        <v>0.001233501099178734</v>
+        <v>0.0006809359299771302</v>
       </c>
       <c r="T37">
-        <v>0.001233501099178735</v>
+        <v>0.0006809359299771302</v>
       </c>
     </row>
   </sheetData>
